--- a/biology/Zoologie/Herophila_tristis/Herophila_tristis.xlsx
+++ b/biology/Zoologie/Herophila_tristis/Herophila_tristis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herophila tristis est une espèce d'insectes coléoptères de la famille des Cerambycidae (capricornes) répandu en Europe.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrit pour la première fois par Carl Linnaeus en 1767 dans le genre Cerambyx, ce coléoptère ressemble à Morimus asper mais possède notamment des antennes moins longues.
-Cette espèce est sur la liste rouge des coléoptères saproxyliques d'Auvergne Rhône-Alpes[1].
+Cette espèce est sur la liste rouge des coléoptères saproxyliques d'Auvergne Rhône-Alpes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été observé en Italie, Roumanie, Autriche, Bulgarie, Crète, Croatie, Sardaigne, France, Grèce, Serbie, Corse, Sicile, Hongrie, Slovénie, Albanie ainsi qu'en Turquie. 
 			Vue latérale.
@@ -577,11 +593,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se nourrissent sous l'écorce d'une variété de feuillus. 
-Les adultes se nourrissent de Morus alba, Ficus carica, et Robinia pseudoacacia[2]. Leur durée de vie est de 2-3 ans. Ils mesurent entre 13 et 26 mm de long[3].
-Ils se cachent durant la journée et sortent à la tombée de la nuit[4].
+Les adultes se nourrissent de Morus alba, Ficus carica, et Robinia pseudoacacia. Leur durée de vie est de 2-3 ans. Ils mesurent entre 13 et 26 mm de long.
+Ils se cachent durant la journée et sortent à la tombée de la nuit.
 </t>
         </is>
       </c>
